--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdAcBook.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdAcBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80014427-A36E-4603-BC06-6D677BB5C1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF585AB-7F56-412E-B256-AB686C5FFF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -252,20 +252,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">共用代碼檔       000：全公司
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>AcSubBookCode</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcBookCode,AcSubBookCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>共用代碼檔       201:利變年金帳冊</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -287,6 +278,17 @@
   <si>
     <t>AcBookCode = ,AND AssignSeq &gt;=</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">共用代碼檔
+000:全公司
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+201:利變年金帳冊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -898,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:E14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -919,7 +921,7 @@
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>35</v>
@@ -947,7 +949,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="15"/>
@@ -1039,7 +1041,7 @@
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
@@ -1047,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>45</v>
@@ -1060,7 +1062,7 @@
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J10" s="25"/>
     </row>
@@ -1388,7 +1390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -1414,10 +1416,10 @@
     </row>
     <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
@@ -1428,10 +1430,10 @@
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
